--- a/biology/Botanique/Château_de_Vinsas/Château_de_Vinsas.xlsx
+++ b/biology/Botanique/Château_de_Vinsas/Château_de_Vinsas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vinsas</t>
+          <t>Château_de_Vinsas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Vinsas est un domaine viticole situé à Bourg-Saint-Andéol en Ardèche.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vinsas</t>
+          <t>Château_de_Vinsas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Vinsas est une gentilhommière, propriété agricole et vinicole héritée par les femmes[pas clair]. Le domaine et le château ont été agrandis par Pellier de Vinsas, ayant fait plantation à La Dominique. Il rentra précipitamment en France[Quand ?] afin de revendiquer sa propriété sur le domaine qui était contesté par des cousins de sa femme.
 La propriété vient de l'héritage de sa femme, Eudoxie de Lespinasse. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vinsas</t>
+          <t>Château_de_Vinsas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Le château</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentilhommière, bâtiment rectangulaire à trois étages flanqué d'une tour rectangulaire.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vinsas</t>
+          <t>Château_de_Vinsas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Vinsas</t>
+          <t>Château_de_Vinsas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
